--- a/data/trans_orig/P64D$andando_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P64D$andando_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26D0AB9F-459C-4B77-8F85-CB0E6E98A93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF11424-7974-49A4-B990-0EB941B8D205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{959B4247-CE9E-456E-B573-CA6A4715A6D9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DAAA5E61-0F1B-42AB-A971-DC127D691B93}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="355">
-  <si>
-    <t>Población según cómo se desplaza desde su casa al centro de trabajo/estudios en 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="354">
+  <si>
+    <t>Población según cómo se desplaza desde su casa al centro de trabajo/estudios (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -59,1045 +59,1042 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Andando</t>
   </si>
   <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
   </si>
   <si>
     <t>En bicicleta</t>
   </si>
   <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>En vehículo particular</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>En transporte público</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>En otros medios</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>No realiza estos trayectos</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>En vehículo particular</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>En transporte público</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>En otros medios</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>No realiza estos trayectos</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>4,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1512,8 +1509,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AA8703-86EA-42B4-B522-BC7443F7679C}">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1371013-60FF-480F-BF4A-9F76B5482621}">
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1741,13 +1738,13 @@
         <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>26</v>
@@ -1756,75 +1753,75 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1833,31 +1830,31 @@
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1866,31 +1863,31 @@
         <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1899,25 +1896,25 @@
         <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>94</v>
@@ -1962,7 +1959,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>105</v>
@@ -1977,54 +1974,54 @@
         <v>108</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2033,31 +2030,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2066,31 +2063,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2099,31 +2096,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2132,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>154</v>
@@ -2162,7 +2159,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>157</v>
@@ -2186,45 +2183,45 @@
         <v>163</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2233,31 +2230,31 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2266,31 +2263,31 @@
         <v>28</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2299,31 +2296,31 @@
         <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2332,99 +2329,99 @@
         <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2433,31 +2430,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2466,31 +2463,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2499,31 +2496,31 @@
         <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2532,13 +2529,13 @@
         <v>48</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>22</v>
@@ -2547,84 +2544,84 @@
         <v>23</v>
       </c>
       <c r="H32" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="J34" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2633,13 +2630,13 @@
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>276</v>
+        <v>101</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>22</v>
@@ -2648,16 +2645,16 @@
         <v>23</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2666,31 +2663,31 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="J36" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2699,31 +2696,31 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>290</v>
+        <v>71</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2732,13 +2729,13 @@
         <v>48</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>10</v>
+        <v>292</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>22</v>
@@ -2747,84 +2744,84 @@
         <v>23</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>302</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2833,31 +2830,31 @@
         <v>18</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>205</v>
+        <v>305</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2866,31 +2863,31 @@
         <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>323</v>
+        <v>22</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>329</v>
+        <v>22</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2899,31 +2896,31 @@
         <v>38</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2932,78 +2929,279 @@
         <v>48</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>339</v>
+        <v>23</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>344</v>
+        <v>22</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>345</v>
+        <v>23</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="E51" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H51" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="J51" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45" s="7" t="s">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>354</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
